--- a/files/excel_kecamatan.xlsx
+++ b/files/excel_kecamatan.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Documents\work\form-pml\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A4273F7-56F0-4F76-B9A3-8602A8657D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5CB38-BD97-4897-B88E-523052935004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{64B21D06-14A3-4DAE-B6EE-00051328F393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{64B21D06-14A3-4DAE-B6EE-00051328F393}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KECAMATAN" sheetId="1" r:id="rId1"/>
+    <sheet name="KELURAHAN" sheetId="2" r:id="rId2"/>
+    <sheet name="TPS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Kecamatan</t>
-  </si>
-  <si>
     <t>JUMLAH DPT</t>
   </si>
   <si>
@@ -66,16 +65,32 @@
   </si>
   <si>
     <t>JUMLAH SUARA PASLON III</t>
+  </si>
+  <si>
+    <t>KELURAHAN</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>ALAMAT TPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CDCCBE-2460-4CF6-9669-CD60D064EB02}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -441,31 +457,156 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF10629-3BB5-4564-A58A-8B943EE78CE0}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442EAAC6-FB14-4AC9-839C-89B7D30076C7}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/excel_kecamatan.xlsx
+++ b/files/excel_kecamatan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Documents\work\form-pml\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5CB38-BD97-4897-B88E-523052935004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D317A-C638-455D-886F-11E5180FCBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{64B21D06-14A3-4DAE-B6EE-00051328F393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{64B21D06-14A3-4DAE-B6EE-00051328F393}"/>
   </bookViews>
   <sheets>
     <sheet name="KECAMATAN" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>JUMLAH DPT</t>
   </si>
   <si>
-    <t>JUMLAH DPT TAMBAHAN</t>
-  </si>
-  <si>
     <t>JUMLAH HADIR</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>ALAMAT TPS</t>
+  </si>
+  <si>
+    <t>JUMLAH DPT B</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CDCCBE-2460-4CF6-9669-CD60D064EB02}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,31 +457,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF10629-3BB5-4564-A58A-8B943EE78CE0}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,34 +515,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +555,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,37 +576,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
